--- a/biology/Botanique/Desmanthus/Desmanthus.xlsx
+++ b/biology/Botanique/Desmanthus/Desmanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Desmanthus est un genre de plantes de la famille des Fabacées.
 </t>
@@ -511,15 +523,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                  (11 octobre 2018)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                  (11 octobre 2018) :
 Desmanthus incrustans (Topsent, 1889)
 Desmanthus levii van Soest &amp; Hajdu, 2000
 Desmanthus meandroides van Soest &amp; Hajdu, 2000
 Desmanthus rhabdophorus (Hentschel, 1912)
 Desmanthus topsenti Hentschel, 1912
-Selon ITIS      (11 octobre 2018)[4] :
+Selon ITIS      (11 octobre 2018) :
 Desmanthus acuminatus Benth.
 Desmanthus bicornutus S. Watson
 Desmanthus cooleyi (Eaton) Trel.
@@ -534,9 +548,9 @@
 Desmanthus tatuhyensis Hoehne
 Desmanthus velutinus Scheele
 Desmanthus virgatus (L.) Willd.
-Selon NCBI  (11 octobre 2018)[5] :
+Selon NCBI  (11 octobre 2018) :
 Desmanthus incrustans (Topsent, 1889)
-Selon World Register of Marine Species                               (11 octobre 2018)[2] :
+Selon World Register of Marine Species                               (11 octobre 2018) :
 Desmanthus incrustans (Topsent, 1889)
 Desmanthus levii van Soest &amp; Hajdu, 2000
 Desmanthus meandroides van Soest &amp; Hajdu, 2000
